--- a/xlsx/蘇利南_intext.xlsx
+++ b/xlsx/蘇利南_intext.xlsx
@@ -29,7 +29,7 @@
     <t>蘇利南國旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_蘇利南</t>
+    <t>体育运动_体育运动_伊朗_蘇利南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E9%87%8C%E5%8D%97%E5%9B%BD%E5%BE%BD</t>
